--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -1,29 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CtIEPpUESoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/ctieppuesos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF503CF9-AFA9-FA48-A697-C4052A0453DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="early retirement" sheetId="4" r:id="rId2"/>
     <sheet name="cogen and WHR + eqpt stds" sheetId="6" r:id="rId3"/>
-    <sheet name="substitute fuels for coal" sheetId="5" r:id="rId4"/>
+    <sheet name="fuel type shifting" sheetId="5" r:id="rId4"/>
     <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gabe Mantegna</author>
+  </authors>
+  <commentList>
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabe Mantegna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hydrogen boilers estimated to cost 1.5x the cost of building a natural gas boiler by mid-century when manufacturing capacity has scaled </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="128">
   <si>
     <t>Source:</t>
   </si>
@@ -97,69 +152,6 @@
     <t>Investment per Unit Annual Energy Savings ($/BTU)</t>
   </si>
   <si>
-    <t>We estimate the cost of converting coal equipment to use other fuel types</t>
-  </si>
-  <si>
-    <t>via the conversion of coal-fired biolers to natural gas, because of the</t>
-  </si>
-  <si>
-    <t>availability of data.</t>
-  </si>
-  <si>
-    <t>Typical Pulverized Coal to Natural Gas Conversions</t>
-  </si>
-  <si>
-    <t>Babcock and Wilcox</t>
-  </si>
-  <si>
-    <t>Estimate</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity ($/kW)</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Natural Gas Conversions of Existing Coal-Fired Boilers</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>http://www.babcock.com/library/Documents/MS-14.pdf</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>Page 2, "Financial Considerations," paragraph 1</t>
-  </si>
-  <si>
-    <t>Industrial Boiler Capacity Factor</t>
-  </si>
-  <si>
-    <t>Energy and Environmental Analysis, Inc.</t>
-  </si>
-  <si>
-    <t>Characterization of the U.S. Industrial/Commercial Boiler Population</t>
-  </si>
-  <si>
-    <t>Hours per Year</t>
-  </si>
-  <si>
-    <t>http://www1.eere.energy.gov/manufacturing/distributedenergy/pdfs/characterization_industrial_commerical_boiler_population.pdf</t>
-  </si>
-  <si>
-    <t>Page ES-4, Section ES-5, Paragraph 2, last sentence</t>
-  </si>
-  <si>
-    <t>Investment Cost per Unit Annual Energy Converted ($/kWh)</t>
-  </si>
-  <si>
-    <t>Investment per Unit Energy Converted ($/BTU)</t>
-  </si>
-  <si>
     <t>Rocky Mountain Institute</t>
   </si>
   <si>
@@ -205,9 +197,6 @@
     <t>cogeneration and waste heat recovery</t>
   </si>
   <si>
-    <t>substitute other fuels for coal</t>
-  </si>
-  <si>
     <t>eqpt efficiency stds</t>
   </si>
   <si>
@@ -217,24 +206,9 @@
     <t>early retirement of equipment</t>
   </si>
   <si>
-    <t>substitute other fuels for coal: conversion costs per unit capacity</t>
-  </si>
-  <si>
-    <t>substitute other fuels for coal: capacity factor</t>
-  </si>
-  <si>
-    <t>Substitute Other Fuels for Coal</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>For the "subsitute other fuels for coal" policy, the cost is per unit of energy shifted from coal to</t>
-  </si>
-  <si>
-    <t>another fuel type, not per unit of energy saved.</t>
-  </si>
-  <si>
     <t>achieves this energy savings/shifting annually.</t>
   </si>
   <si>
@@ -340,9 +314,6 @@
     <t>2010 to 2012, RMI and Babcock and Wilcox</t>
   </si>
   <si>
-    <t>substitute other fuels for natural gas</t>
-  </si>
-  <si>
     <t>This variable supports time series data for adaptation to other regions, but as of EPS 1.5.0, we</t>
   </si>
   <si>
@@ -350,22 +321,164 @@
   </si>
   <si>
     <t>Cost ($/BTU)</t>
+  </si>
+  <si>
+    <t>Boiler Purchase Price</t>
+  </si>
+  <si>
+    <t>Electric Boiler</t>
+  </si>
+  <si>
+    <t>Boiler Efficiency</t>
+  </si>
+  <si>
+    <t>Hourly Service Demand</t>
+  </si>
+  <si>
+    <t>Industrial Boiler Inputs</t>
+  </si>
+  <si>
+    <t>Input Name</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>MMBtu/hr</t>
+  </si>
+  <si>
+    <t>Annual Operating Hours</t>
+  </si>
+  <si>
+    <t>hr/yr</t>
+  </si>
+  <si>
+    <t>Annual Service Demand</t>
+  </si>
+  <si>
+    <t>MMBtu/yr</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>"Achieving Carbon Neutrality in California (Revised Report): 2045 Abatement Cost Estimates"</t>
+  </si>
+  <si>
+    <t>https://ww2.arb.ca.gov/sites/default/files/2020-09/e3_cn_draft_report_supp_data_aug2020.xlsx</t>
+  </si>
+  <si>
+    <t>fuel type shifting</t>
+  </si>
+  <si>
+    <t>Fuel Type Shifting</t>
+  </si>
+  <si>
+    <t>Electric Boiler Conversion</t>
+  </si>
+  <si>
+    <t>Hydrogen Boiler Conversion</t>
+  </si>
+  <si>
+    <t>General Inputs</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Equipment Lifetime</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>Natural Gas Price</t>
+  </si>
+  <si>
+    <t>$/MMBtu</t>
+  </si>
+  <si>
+    <t>Synthetic Natural Gas Price (Conservative)</t>
+  </si>
+  <si>
+    <t>Synthetic Natural Gas Price (Optimistic)</t>
+  </si>
+  <si>
+    <t>Hydrogen Price (Conservative)</t>
+  </si>
+  <si>
+    <t>Hydrogen Price (Optimistic)</t>
+  </si>
+  <si>
+    <t>Hydrogen Storage and Delivery Cost</t>
+  </si>
+  <si>
+    <t>$/MMBTU</t>
+  </si>
+  <si>
+    <t>Hydrogen Boiler Conservative</t>
+  </si>
+  <si>
+    <t>Hydrogen Boiler Optimistic</t>
+  </si>
+  <si>
+    <t>Natural Gas Boiler Pice</t>
+  </si>
+  <si>
+    <t>H2 Boiler Price</t>
+  </si>
+  <si>
+    <t>H2 Boiler Efficiency</t>
+  </si>
+  <si>
+    <t>Electricity Emissions Intensity</t>
+  </si>
+  <si>
+    <t>kg CO2e/kWh</t>
+  </si>
+  <si>
+    <t>Natural Gas Emissions Intensity</t>
+  </si>
+  <si>
+    <t>kg CO2e/MMBtu</t>
+  </si>
+  <si>
+    <t>Natural Gas Boiler</t>
+  </si>
+  <si>
+    <t>Investment per Unit Energy Converted in First Year ($/BTU)</t>
+  </si>
+  <si>
+    <t>For fuel type shifting we take an average of electric boiler conversion and hydrogen boiler conversion.</t>
+  </si>
+  <si>
+    <t>We assume the majority of energy and costs will be from boiler conversion instead of process heaters.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +541,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -444,18 +578,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -499,8 +632,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -520,8 +668,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -548,38 +698,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -588,7 +713,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -598,7 +723,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -610,17 +735,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="9" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="6"/>
+  <cellStyles count="11">
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="4"/>
-    <cellStyle name="Footnotes: top row" xfId="8"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="7"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Parent row" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent" xfId="10" builtinId="5"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,7 +791,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -760,6 +905,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -795,6 +957,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -970,309 +1149,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="81.73046875" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="C1" s="40">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="5">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="25"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="32" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="33" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="24"/>
-    </row>
-    <row r="40" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="24"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
         <v>0.98699999999999999</v>
       </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="35">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="26">
         <v>1.0549999999999999</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="34" t="s">
-        <v>101</v>
+      <c r="B53" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="25" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B35" r:id="rId3"/>
-    <hyperlink ref="B21" r:id="rId4"/>
-    <hyperlink ref="B28" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="26.1328125" customWidth="1"/>
-    <col min="4" max="4" width="23.86328125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1280,22 +1430,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1303,12 +1453,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1487,7 @@
         <v>0.36555607695917408</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1352,7 +1502,7 @@
         <v>0.49267566948958574</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1517,7 @@
         <v>0.61937990072656646</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1378,257 +1528,257 @@
         <v>0.49253721572510872</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="28">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="30">
+        <v>61</v>
+      </c>
+      <c r="B4" s="21">
         <f>2.4*10^15</f>
         <v>2400000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="30">
+        <v>55</v>
+      </c>
+      <c r="B5" s="21">
         <f>2.3*10^15</f>
         <v>2300000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="26">
+        <v>61</v>
+      </c>
+      <c r="B25" s="17">
         <v>114</v>
       </c>
       <c r="C25" s="5">
         <v>22</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="18">
         <f>284*10^9</f>
         <v>284000000000</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="22">
         <f>(C25/B25)*D25</f>
         <v>54807017543.85965</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="26">
+        <v>55</v>
+      </c>
+      <c r="B26" s="17">
         <v>114</v>
       </c>
       <c r="C26" s="5">
         <v>5</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="18">
         <f>284*10^9</f>
         <v>284000000000</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="22">
         <f>(C26/B26)*D26</f>
         <v>12456140350.877192</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="26"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C27" s="18"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="32">
+        <v>61</v>
+      </c>
+      <c r="B29" s="23">
         <f>E25/B4</f>
         <v>2.2836257309941521E-5</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C29" s="18"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="32">
+        <v>55</v>
+      </c>
+      <c r="B30" s="23">
         <f>E26/B5</f>
         <v>5.4157131960335617E-6</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,1236 +1788,1414 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.265625" customWidth="1"/>
-    <col min="2" max="2" width="33.73046875" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="18">
-        <v>50</v>
-      </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="19">
-        <v>75</v>
-      </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="21">
-        <f>AVERAGE(B9:B10)</f>
-        <v>62.5</v>
-      </c>
-      <c r="C11" s="22"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="17">
-        <v>0.47</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <f>24*365</f>
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="23">
-        <f>B11/(A17*A14)</f>
-        <v>1.5180219566695814E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="11">
-        <f>2.93*10^-4</f>
-        <v>2.9300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
+    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="33">
+        <v>6.5242598122280206</v>
+      </c>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="39">
+        <v>6.3954140084752677E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="39">
+        <v>52.826854199999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="34">
+        <v>53860</v>
+      </c>
+      <c r="D16" s="34">
+        <v>87540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="36">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="D18" s="36">
+        <v>3.3475000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="37">
+        <v>5280</v>
+      </c>
+      <c r="D19" s="37">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="37">
+        <f>C18*C19</f>
+        <v>17674.8</v>
+      </c>
+      <c r="D20" s="37">
+        <f>D18*D19</f>
+        <v>17674.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <f>C16/(C20*10^6)</f>
+        <v>3.047276348247222E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="31">
+        <v>25</v>
+      </c>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="33">
+        <v>6.5242598122280206</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="34">
         <v>44</v>
       </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="28">
-        <f>A20*A23</f>
-        <v>4.4478043330418734E-6</v>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="34">
+        <v>34</v>
+      </c>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="34">
+        <v>21</v>
+      </c>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="34">
+        <v>15</v>
+      </c>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="34">
+        <v>4</v>
+      </c>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="34">
+        <v>87540</v>
+      </c>
+      <c r="D42" s="34">
+        <v>87540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="34">
+        <f>C42*1.5</f>
+        <v>131310</v>
+      </c>
+      <c r="D43" s="34">
+        <v>87540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="32">
+        <f>D44</f>
+        <v>0.8</v>
+      </c>
+      <c r="D44" s="35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="36">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="D45" s="36">
+        <v>3.3475000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="37">
+        <v>5280</v>
+      </c>
+      <c r="D46" s="37">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="37">
+        <f>C45*C46</f>
+        <v>17674.8</v>
+      </c>
+      <c r="D47" s="37">
+        <f>D45*D46</f>
+        <v>17674.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19">
+        <f>AVERAGE(C43:D43)/(AVERAGE(C47:D47)*10^6)</f>
+        <v>6.1910177201439334E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.1328125" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="36">
+        <v>80</v>
+      </c>
+      <c r="B1" s="27">
         <v>2018</v>
       </c>
       <c r="C1">
         <v>2019</v>
       </c>
-      <c r="D1" s="36">
+      <c r="D1" s="27">
         <v>2020</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="25">
         <v>2021</v>
       </c>
-      <c r="F1" s="36">
+      <c r="F1" s="27">
         <v>2022</v>
       </c>
-      <c r="G1" s="34">
+      <c r="G1" s="25">
         <v>2023</v>
       </c>
-      <c r="H1" s="36">
+      <c r="H1" s="27">
         <v>2024</v>
       </c>
-      <c r="I1" s="34">
+      <c r="I1" s="25">
         <v>2025</v>
       </c>
-      <c r="J1" s="36">
+      <c r="J1" s="27">
         <v>2026</v>
       </c>
-      <c r="K1" s="34">
+      <c r="K1" s="25">
         <v>2027</v>
       </c>
-      <c r="L1" s="36">
+      <c r="L1" s="27">
         <v>2028</v>
       </c>
-      <c r="M1" s="34">
+      <c r="M1" s="25">
         <v>2029</v>
       </c>
-      <c r="N1" s="36">
+      <c r="N1" s="27">
         <v>2030</v>
       </c>
-      <c r="O1" s="34">
+      <c r="O1" s="25">
         <v>2031</v>
       </c>
-      <c r="P1" s="36">
+      <c r="P1" s="27">
         <v>2032</v>
       </c>
-      <c r="Q1" s="34">
+      <c r="Q1" s="25">
         <v>2033</v>
       </c>
-      <c r="R1" s="36">
+      <c r="R1" s="27">
         <v>2034</v>
       </c>
-      <c r="S1" s="34">
+      <c r="S1" s="25">
         <v>2035</v>
       </c>
-      <c r="T1" s="36">
+      <c r="T1" s="27">
         <v>2036</v>
       </c>
-      <c r="U1" s="34">
+      <c r="U1" s="25">
         <v>2037</v>
       </c>
-      <c r="V1" s="36">
+      <c r="V1" s="27">
         <v>2038</v>
       </c>
-      <c r="W1" s="34">
+      <c r="W1" s="25">
         <v>2039</v>
       </c>
-      <c r="X1" s="36">
+      <c r="X1" s="27">
         <v>2040</v>
       </c>
-      <c r="Y1" s="34">
+      <c r="Y1" s="25">
         <v>2041</v>
       </c>
-      <c r="Z1" s="36">
+      <c r="Z1" s="27">
         <v>2042</v>
       </c>
-      <c r="AA1" s="34">
+      <c r="AA1" s="25">
         <v>2043</v>
       </c>
-      <c r="AB1" s="36">
+      <c r="AB1" s="27">
         <v>2044</v>
       </c>
-      <c r="AC1" s="34">
+      <c r="AC1" s="25">
         <v>2045</v>
       </c>
-      <c r="AD1" s="36">
+      <c r="AD1" s="27">
         <v>2046</v>
       </c>
-      <c r="AE1" s="34">
+      <c r="AE1" s="25">
         <v>2047</v>
       </c>
-      <c r="AF1" s="36">
+      <c r="AF1" s="27">
         <v>2048</v>
       </c>
-      <c r="AG1" s="34">
+      <c r="AG1" s="25">
         <v>2049</v>
       </c>
-      <c r="AH1" s="36">
+      <c r="AH1" s="27">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="29">
-        <f>'early retirement'!A20*About!$A$59</f>
+        <v>36</v>
+      </c>
+      <c r="B2" s="20">
+        <f>'early retirement'!A20*About!$A$52</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="20">
         <f>$B2</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="20">
         <f>$B2</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="E2" s="29">
-        <f t="shared" ref="E2:AH8" si="0">$B2</f>
+      <c r="E2" s="20">
+        <f t="shared" ref="E2:AH7" si="0">$B2</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="R2" s="29">
+      <c r="R2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="S2" s="29">
+      <c r="S2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="T2" s="29">
+      <c r="T2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="U2" s="29">
+      <c r="U2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="V2" s="29">
+      <c r="V2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="W2" s="29">
+      <c r="W2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="Y2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="Z2" s="29">
+      <c r="Z2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AA2" s="29">
+      <c r="AA2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AB2" s="29">
+      <c r="AB2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AC2" s="29">
+      <c r="AC2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AD2" s="29">
+      <c r="AD2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AE2" s="29">
+      <c r="AE2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AF2" s="29">
+      <c r="AF2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AG2" s="29">
+      <c r="AG2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AH2" s="29">
+      <c r="AH2" s="20">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <f t="shared" ref="C3:R8" si="1">$B3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="37">
+      <c r="C3" s="28">
+        <f t="shared" ref="C3:R7" si="1">$B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R3" s="37">
+      <c r="R3" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="S3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="29">
-        <f>'cogen and WHR + eqpt stds'!B29*About!$A$60</f>
+        <v>38</v>
+      </c>
+      <c r="B4" s="20">
+        <f>'cogen and WHR + eqpt stds'!B29*About!$A$53</f>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="20">
         <f t="shared" si="1"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="20">
         <f t="shared" si="1"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AD4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AF4" s="29">
+      <c r="AF4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AG4" s="29">
+      <c r="AG4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AH4" s="20">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="29">
-        <f>'cogen and WHR + eqpt stds'!B30*About!$A$60</f>
+        <v>39</v>
+      </c>
+      <c r="B5" s="20">
+        <f>'cogen and WHR + eqpt stds'!B30*About!$A$53</f>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="20">
         <f t="shared" si="1"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="20">
         <f t="shared" si="1"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="AA5" s="29">
+      <c r="AA5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="AE5" s="29">
+      <c r="AE5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="AF5" s="29">
+      <c r="AF5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="AG5" s="29">
+      <c r="AG5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="AH5" s="29">
+      <c r="AH5" s="20">
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="29">
-        <f>'substitute fuels for coal'!A26*About!$A$60</f>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="C6" s="29">
+        <v>98</v>
+      </c>
+      <c r="B6" s="20">
+        <f>AVERAGE('fuel type shifting'!A24,'fuel type shifting'!A50)*About!$A$53</f>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="1"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="D6" s="29">
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="D6" s="20">
         <f t="shared" si="1"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="E6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="F6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="G6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="H6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="I6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="J6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="K6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="L6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="M6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="N6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="O6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="P6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="Q6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="R6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="S6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="T6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="U6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="V6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="W6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="X6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="Y6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="Z6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AA6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AB6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AC6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AD6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AE6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AF6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AG6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AH6" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="29">
-        <f>B6</f>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="C7" s="29">
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="V6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="W6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="X6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="Y6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="Z6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="AA6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="AB6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="AC6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="AE6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="AF6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="AG6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+      <c r="AH6" s="20">
+        <f t="shared" si="0"/>
+        <v>4.8732001210763347E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
         <f t="shared" si="1"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
         <f t="shared" si="1"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="E7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="F7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="G7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="H7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="I7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="J7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="K7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="L7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="M7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="N7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="O7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="P7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="Q7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="R7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="S7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="T7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="U7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="V7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="W7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="X7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="Y7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="Z7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AA7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AB7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AC7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AD7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AE7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AF7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AG7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-      <c r="AH7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\indst\CtIEPpUESoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\indst\CtIEPpUESoS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEAEDC2E-6B42-4CB5-AFA1-775DD85ABCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712F579-FDFF-4D31-9988-B54209EAC155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="1140" windowWidth="16605" windowHeight="15210" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21945" yWindow="3135" windowWidth="34365" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="early retirement" sheetId="4" r:id="rId2"/>
     <sheet name="cogen and WHR" sheetId="6" r:id="rId3"/>
     <sheet name="efficiency" sheetId="10" r:id="rId4"/>
-    <sheet name="med and high temp fuel shifting" sheetId="5" r:id="rId5"/>
-    <sheet name="low temp fuel type shifting" sheetId="8" r:id="rId6"/>
+    <sheet name="shift to electricity" sheetId="8" r:id="rId5"/>
+    <sheet name="shift to hydrogen" sheetId="5" r:id="rId6"/>
     <sheet name="substitute fuels for coal" sheetId="9" r:id="rId7"/>
     <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId8"/>
   </sheets>
@@ -44,7 +44,7 @@
     <author>Gabe Mantegna</author>
   </authors>
   <commentList>
-    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="176">
   <si>
     <t>Source:</t>
   </si>
@@ -366,9 +366,6 @@
     <t>https://ww2.arb.ca.gov/sites/default/files/2020-09/e3_cn_draft_report_supp_data_aug2020.xlsx</t>
   </si>
   <si>
-    <t>Fuel Type Shifting</t>
-  </si>
-  <si>
     <t>Electric Boiler Conversion</t>
   </si>
   <si>
@@ -453,12 +450,6 @@
     <t>We assume the majority of energy and costs will be from boiler conversion instead of process heaters.</t>
   </si>
   <si>
-    <t>med and high temp fuel type shifting</t>
-  </si>
-  <si>
-    <t>low temp fuel type shifting</t>
-  </si>
-  <si>
     <t>Emerson Industrial heat pump case studies:</t>
   </si>
   <si>
@@ -598,6 +589,27 @@
   </si>
   <si>
     <t>Tables 15 and 16</t>
+  </si>
+  <si>
+    <t>shift to electricity</t>
+  </si>
+  <si>
+    <t>shift to hydrogen</t>
+  </si>
+  <si>
+    <t>Example 1: Industrial Heat Pump</t>
+  </si>
+  <si>
+    <t>Example 2: Industrial Electric Boiler</t>
+  </si>
+  <si>
+    <t>$/BTU</t>
+  </si>
+  <si>
+    <t>elec and hydrogen shifting (boiler conversion)</t>
+  </si>
+  <si>
+    <t>elec shifting (heat pump)</t>
   </si>
 </sst>
 </file>
@@ -707,7 +719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +758,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,10 +851,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -860,18 +878,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -879,25 +892,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="9" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
@@ -916,12 +921,8 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -938,10 +939,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1118,9 +1125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1158,9 +1165,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1193,26 +1200,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1245,26 +1235,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1440,9 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1463,22 +1434,22 @@
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>158</v>
+      <c r="D4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="2">
         <v>2010</v>
       </c>
     </row>
@@ -1486,8 +1457,8 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>159</v>
+      <c r="D6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,38 +1466,38 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>161</v>
+      <c r="D8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>168</v>
+      <c r="D11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="2">
         <v>2009</v>
       </c>
     </row>
@@ -1534,8 +1505,8 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>169</v>
+      <c r="D13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,20 +1514,20 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>171</v>
+      <c r="D15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -1586,11 +1557,11 @@
     </row>
     <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1609,32 +1580,29 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-    </row>
-    <row r="30" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,30 +1610,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-    </row>
-    <row r="38" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,10 +1650,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>133</v>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,28 +1676,28 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
+      <c r="A57">
         <v>0.98699999999999999</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
         <v>1.0549999999999999</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1899,7 +1860,7 @@
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
       </c>
@@ -1950,13 +1911,13 @@
       <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <f>2.4*10^15</f>
         <v>2400000000000000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1967,70 +1928,67 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2061,57 +2019,56 @@
       <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="5">
         <v>114</v>
       </c>
       <c r="C25" s="5">
         <v>22</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <f>284*10^9</f>
         <v>284000000000</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="15">
         <f>(C25/B25)*D25</f>
         <v>54807017543.85965</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="19">
         <f>E25/B4</f>
         <v>2.2836257309941521E-5</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="22"/>
-      <c r="G30" s="55"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2122,7 +2079,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131020BD-F268-461F-B03F-7101039E9E7B}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -2134,412 +2091,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25">
+      <c r="B1">
         <v>2009</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1">
         <v>2010</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1">
         <v>2011</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1">
         <v>2012</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1">
         <v>2013</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1">
         <v>2014</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1">
         <v>2015</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1">
         <v>2016</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1">
         <v>2017</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1">
         <v>2018</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1">
         <v>2019</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1">
         <v>2020</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="17">
         <f>NPV(0.07,B2:M2)</f>
         <v>79000000000.000015</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>9946257103.7466221</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <f>B2</f>
         <v>9946257103.7466221</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <f t="shared" ref="D2:M2" si="0">C2</f>
         <v>9946257103.7466221</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="17">
         <f t="shared" si="0"/>
         <v>9946257103.7466221</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3">
         <f>51+28</f>
         <v>79</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25">
+      <c r="B4">
         <f>M4/COUNT(B1:M1)</f>
         <v>201.66666666666666</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25">
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4">
         <f>1550+870</f>
         <v>2420</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <f>B2/(B4*1000000000000)*Q5</f>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25" t="s">
-        <v>165</v>
+      <c r="O5" t="s">
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>1.07</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-    </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,16 +2229,380 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70154B78-0E9B-4A9B-9D3C-65AF6790BABC}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6">
+        <v>56603</v>
+      </c>
+      <c r="C6" s="34">
+        <v>750000</v>
+      </c>
+      <c r="D6" s="17">
+        <f>C6/(B6*10^6)</f>
+        <v>1.3250181085808173E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>25717</v>
+      </c>
+      <c r="C7" s="34">
+        <v>700000</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" ref="D7:D9" si="0">C7/(B7*10^6)</f>
+        <v>2.7219349068709415E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>60507</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1250000</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>2.0658766754259837E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B6:B8)</f>
+        <v>47609</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C6:C8)</f>
+        <v>900000</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="0"/>
+        <v>1.8903988741624482E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <f>D9*(1-A17)</f>
+        <v>6.1627003297695804E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="26">
+        <v>6.5242598122280206</v>
+      </c>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="32">
+        <v>6.3954140084752677E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="32">
+        <v>52.826854199999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="27">
+        <v>53860</v>
+      </c>
+      <c r="D38" s="27">
+        <v>87540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1</v>
+      </c>
+      <c r="D39" s="28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="29">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="D40" s="29">
+        <v>3.3475000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="30">
+        <v>5280</v>
+      </c>
+      <c r="D41" s="30">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="30">
+        <f>C40*C41</f>
+        <v>17674.8</v>
+      </c>
+      <c r="D42" s="30">
+        <f>D40*D41</f>
+        <v>17674.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="51">
+        <f>C38/(C42*10^6)</f>
+        <v>3.047276348247222E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="36">
+        <f>AVERAGE(A20,A46)</f>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -2566,599 +2611,238 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>95</v>
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="A5" s="24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="C5" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="B6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C7" s="26">
+        <f>'shift to electricity'!C32</f>
+        <v>6.5242598122280206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="33">
-        <v>6.5242598122280206</v>
-      </c>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="39">
-        <v>6.3954140084752677E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="39">
-        <v>52.826854199999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="31" t="s">
+      <c r="C15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="34">
-        <v>53860</v>
-      </c>
-      <c r="D16" s="34">
+      <c r="C16" s="27">
         <v>87540</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="D16" s="27">
+        <v>87540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="27">
+        <f>C16*1.5</f>
+        <v>131310</v>
+      </c>
+      <c r="D17" s="27">
+        <v>87540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="32">
-        <v>1</v>
-      </c>
-      <c r="D17" s="35">
+      <c r="C18" s="25">
+        <f>D18</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="D18" s="28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B19" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C19" s="29">
         <v>3.3475000000000001</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D19" s="29">
         <v>3.3475000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B20" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C20" s="30">
         <v>5280</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D20" s="30">
         <v>5280</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B21" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="37">
-        <f>C18*C19</f>
+      <c r="C21" s="30">
+        <f>C19*C20</f>
         <v>17674.8</v>
       </c>
-      <c r="D20" s="37">
-        <f>D18*D19</f>
+      <c r="D21" s="30">
+        <f>D19*D20</f>
         <v>17674.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="8"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <f>C16/(C20*10^6)</f>
-        <v>3.047276348247222E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="31">
-        <v>25</v>
-      </c>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="33">
-        <f>C10</f>
-        <v>6.5242598122280206</v>
-      </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="34">
-        <v>44</v>
-      </c>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="34">
-        <v>34</v>
-      </c>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="34">
-        <v>21</v>
-      </c>
-      <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="34">
-        <v>15</v>
-      </c>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="34">
-        <v>4</v>
-      </c>
-      <c r="D38" s="25"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="34">
-        <v>87540</v>
-      </c>
-      <c r="D42" s="34">
-        <v>87540</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="34">
-        <f>C42*1.5</f>
-        <v>131310</v>
-      </c>
-      <c r="D43" s="34">
-        <v>87540</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="32">
-        <f>D44</f>
-        <v>0.8</v>
-      </c>
-      <c r="D44" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="36">
-        <v>3.3475000000000001</v>
-      </c>
-      <c r="D45" s="36">
-        <v>3.3475000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="37">
-        <v>5280</v>
-      </c>
-      <c r="D46" s="37">
-        <v>5280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="37">
-        <f>C45*C46</f>
-        <v>17674.8</v>
-      </c>
-      <c r="D47" s="37">
-        <f>D45*D46</f>
-        <v>17674.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
-        <f>AVERAGE(C43:D43)/(AVERAGE(C47:D47)*10^6)</f>
+      <c r="A24" s="50">
+        <f>AVERAGE(C17:D17)/(AVERAGE(C21:D21)*10^6)</f>
         <v>6.1910177201439334E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70154B78-0E9B-4A9B-9D3C-65AF6790BABC}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" style="25" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="25">
-        <v>56603</v>
-      </c>
-      <c r="C4" s="41">
-        <v>750000</v>
-      </c>
-      <c r="D4" s="20">
-        <f>C4/(B4*10^6)</f>
-        <v>1.3250181085808173E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="25">
-        <v>25717</v>
-      </c>
-      <c r="C5" s="41">
-        <v>700000</v>
-      </c>
-      <c r="D5" s="20">
-        <f t="shared" ref="D5:D7" si="0">C5/(B5*10^6)</f>
-        <v>2.7219349068709415E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="25">
-        <v>60507</v>
-      </c>
-      <c r="C6" s="41">
-        <v>1250000</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" si="0"/>
-        <v>2.0658766754259837E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="25">
-        <f>AVERAGE(B4:B6)</f>
-        <v>47609</v>
-      </c>
-      <c r="C7" s="25">
-        <f>AVERAGE(C4:C6)</f>
-        <v>900000</v>
-      </c>
-      <c r="D7" s="46">
-        <f t="shared" si="0"/>
-        <v>1.8903988741624482E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <f>D7*(1-A15)</f>
-        <v>6.1627003297695804E-6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3172,87 +2856,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="25"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="35"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="42"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="C6" s="47"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="47"/>
+        <v>146</v>
+      </c>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="50">
+        <v>147</v>
+      </c>
+      <c r="B9" s="41">
         <v>50</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="50">
+        <v>148</v>
+      </c>
+      <c r="B10" s="41">
         <v>75</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="52">
+      <c r="A11" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="43">
         <f>AVERAGE(B9:B10)</f>
         <v>62.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -3263,7 +2946,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,12 +2957,12 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="53">
+      <c r="A20" s="44">
         <f>B11/(A17*A14)</f>
         <v>1.5180219566695814E-2</v>
       </c>
@@ -3298,12 +2981,12 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="16">
         <f>A20*A23</f>
         <v>4.4478043330418734E-6</v>
       </c>
@@ -3320,9 +3003,7 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3335,103 +3016,103 @@
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="12">
         <v>2018</v>
       </c>
       <c r="C1">
         <v>2019</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="12">
         <v>2020</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1">
         <v>2021</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="12">
         <v>2022</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1">
         <v>2023</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="12">
         <v>2024</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1">
         <v>2025</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="12">
         <v>2026</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1">
         <v>2027</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="12">
         <v>2028</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1">
         <v>2029</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="12">
         <v>2030</v>
       </c>
-      <c r="O1" s="25">
+      <c r="O1">
         <v>2031</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="12">
         <v>2032</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="Q1">
         <v>2033</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="12">
         <v>2034</v>
       </c>
-      <c r="S1" s="25">
+      <c r="S1">
         <v>2035</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="12">
         <v>2036</v>
       </c>
-      <c r="U1" s="25">
+      <c r="U1">
         <v>2037</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="12">
         <v>2038</v>
       </c>
-      <c r="W1" s="25">
+      <c r="W1">
         <v>2039</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="12">
         <v>2040</v>
       </c>
-      <c r="Y1" s="25">
+      <c r="Y1">
         <v>2041</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="12">
         <v>2042</v>
       </c>
-      <c r="AA1" s="25">
+      <c r="AA1">
         <v>2043</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="12">
         <v>2044</v>
       </c>
-      <c r="AC1" s="25">
+      <c r="AC1">
         <v>2045</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="12">
         <v>2046</v>
       </c>
-      <c r="AE1" s="25">
+      <c r="AE1">
         <v>2047</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="12">
         <v>2048</v>
       </c>
-      <c r="AG1" s="25">
+      <c r="AG1">
         <v>2049</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="12">
         <v>2050</v>
       </c>
     </row>
@@ -3439,135 +3120,135 @@
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <f>'early retirement'!A20*About!$A$57</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <f>$B2</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <f>$B2</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <f t="shared" ref="E2:AH8" si="0">$B2</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AE2" s="20">
+      <c r="AE2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AF2" s="20">
+      <c r="AF2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AG2" s="20">
+      <c r="AG2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="AH2" s="20">
+      <c r="AH2" s="17">
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
@@ -3579,131 +3260,131 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3">
         <f t="shared" ref="C3:R8" si="1">$B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="28">
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3712,135 +3393,135 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <f>'cogen and WHR'!B29*About!$A$58</f>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <f t="shared" si="1"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <f t="shared" si="1"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AB4" s="20">
+      <c r="AB4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AD4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AF4" s="20">
+      <c r="AF4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AH4" s="17">
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
@@ -3849,545 +3530,545 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <f>efficiency!B5</f>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <f t="shared" si="1"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <f t="shared" si="1"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AD5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="AE5" s="20">
+      <c r="AE5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="AF5" s="20">
+      <c r="AF5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AG5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AH5" s="17">
         <f t="shared" si="0"/>
         <v>5.2772702980209352E-5</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="20">
-        <f>'med and high temp fuel shifting'!$A$50</f>
+        <v>169</v>
+      </c>
+      <c r="B6" s="17">
+        <f>'shift to electricity'!A53</f>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="1"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="1"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="S6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="T6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="V6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="W6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="X6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="Y6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="Z6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="AA6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="AB6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="AC6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="AD6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="AE6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="AF6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="AG6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+      <c r="AH6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.604988339008401E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="17">
+        <f>'shift to hydrogen'!A24</f>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C7" s="17">
         <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D7" s="17">
         <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="E6" s="20">
-        <f t="shared" si="0"/>
+      <c r="E7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="F6" s="20">
-        <f t="shared" si="0"/>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="G6" s="20">
-        <f t="shared" si="0"/>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="H6" s="20">
-        <f t="shared" si="0"/>
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="I6" s="20">
-        <f t="shared" si="0"/>
+      <c r="I7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="J6" s="20">
-        <f t="shared" si="0"/>
+      <c r="J7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="K6" s="20">
-        <f t="shared" si="0"/>
+      <c r="K7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="L6" s="20">
-        <f t="shared" si="0"/>
+      <c r="L7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="M6" s="20">
-        <f t="shared" si="0"/>
+      <c r="M7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="N6" s="20">
-        <f t="shared" si="0"/>
+      <c r="N7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="O6" s="20">
-        <f t="shared" si="0"/>
+      <c r="O7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="P6" s="20">
-        <f t="shared" si="0"/>
+      <c r="P7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="Q6" s="20">
-        <f t="shared" si="0"/>
+      <c r="Q7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="R6" s="20">
-        <f t="shared" si="0"/>
+      <c r="R7" s="17">
+        <f t="shared" si="1"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AA7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AB7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AF7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="AG6" s="20">
+      <c r="AG7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AH7" s="17">
         <f t="shared" si="0"/>
         <v>6.1910177201439334E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="44">
-        <f>'low temp fuel type shifting'!A18</f>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="C7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="K7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="L7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="R7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="S7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="U7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="V7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="W7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="X7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="Y7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="Z7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AA7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AB7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AC7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AD7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AE7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AF7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AG7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AH7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="20">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="52">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="28">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
